--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IBM Health Data Connect Common Data Model definition of what fields we currently define for an insurance plan</t>
+    <t>Health Data Connect Common Data Model definition of what fields we currently define for an insurance plan</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1862,40 +1862,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.6875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.69140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="51.7109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="102.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.18359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.19140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.1953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="53.16796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="31.234375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,223 +262,227 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>InsurancePlan.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>InsurancePlan.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>InsurancePlan.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>InsurancePlan.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>dentalFullyInsuredIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/dental-fully-insured-indicator}
+</t>
+  </si>
+  <si>
+    <t>Indicator of the fully insured dental coverage for the member or employee</t>
+  </si>
+  <si>
+    <t>drugFullyInsuredIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/drug-fully-insured-indicator}
+</t>
+  </si>
+  <si>
+    <t>Indicator of the fully insured drug coverage for the member or employee</t>
+  </si>
+  <si>
+    <t>enrollmentType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/enrollment-type}
+</t>
+  </si>
+  <si>
+    <t>Code for the type of enrollment</t>
+  </si>
+  <si>
+    <t>exchangePlanIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/exchange-plan-indicator}
+</t>
+  </si>
+  <si>
+    <t>Indicator that identifies if the plan is available on a healthcare exchange marketplace</t>
+  </si>
+  <si>
+    <t>IndustryClassification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/industry-classification}
+</t>
+  </si>
+  <si>
+    <t>Industry classification code which can be based on the North American Industry Classification System (NAICS)</t>
+  </si>
+  <si>
+    <t>InsurancePlan.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>InsurancePlan.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>InsurancePlan.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>InsurancePlan.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>InsurancePlan.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>dentalFullyInsuredIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/dental-fully-insured-indicator}
-</t>
-  </si>
-  <si>
-    <t>Indicator of the fully insured dental coverage for the member or employee</t>
-  </si>
-  <si>
-    <t>drugFullyInsuredIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/drug-fully-insured-indicator}
-</t>
-  </si>
-  <si>
-    <t>Indicator of the fully insured drug coverage for the member or employee</t>
-  </si>
-  <si>
-    <t>enrollmentType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/enrollment-type}
-</t>
-  </si>
-  <si>
-    <t>Code for the type of enrollment</t>
-  </si>
-  <si>
-    <t>exchangePlanIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/exchange-plan-indicator}
-</t>
-  </si>
-  <si>
-    <t>Indicator that identifies if the plan is available on a healthcare exchange marketplace</t>
-  </si>
-  <si>
-    <t>IndustryClassification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/industry-classification}
-</t>
-  </si>
-  <si>
-    <t>Industry classification code which can be based on the North American Industry Classification System (NAICS)</t>
-  </si>
-  <si>
-    <t>InsurancePlan.extension.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3396,13 +3400,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3453,7 +3457,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -3471,12 +3475,12 @@
         <v>72</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3547,7 +3551,7 @@
         <v>129</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>72</v>
@@ -3556,7 +3560,7 @@
         <v>130</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -3579,7 +3583,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3605,13 +3609,13 @@
         <v>96</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3619,7 +3623,7 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>72</v>
@@ -3661,7 +3665,7 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>80</v>
@@ -3684,7 +3688,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3707,13 +3711,13 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3752,17 +3756,17 @@
         <v>72</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
@@ -3785,10 +3789,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>72</v>
@@ -3810,13 +3814,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3843,11 +3847,11 @@
         <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>72</v>
@@ -3865,7 +3869,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -3891,7 +3895,7 @@
         <v>125</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>72</v>
@@ -3913,13 +3917,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3996,7 +4000,7 @@
         <v>125</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>72</v>
@@ -4018,13 +4022,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4101,7 +4105,7 @@
         <v>125</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>72</v>
@@ -4123,13 +4127,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4206,7 +4210,7 @@
         <v>125</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>72</v>
@@ -4228,13 +4232,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4311,7 +4315,7 @@
         <v>125</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>72</v>
@@ -4333,13 +4337,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4416,7 +4420,7 @@
         <v>125</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>72</v>
@@ -4438,13 +4442,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4521,7 +4525,7 @@
         <v>125</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>72</v>
@@ -4543,13 +4547,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4626,7 +4630,7 @@
         <v>125</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>72</v>
@@ -4648,13 +4652,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4731,7 +4735,7 @@
         <v>125</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>72</v>
@@ -4753,13 +4757,13 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4836,7 +4840,7 @@
         <v>125</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>72</v>
@@ -4858,13 +4862,13 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4941,7 +4945,7 @@
         <v>125</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>72</v>
@@ -4963,13 +4967,13 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5046,7 +5050,7 @@
         <v>125</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>72</v>
@@ -5068,13 +5072,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5151,7 +5155,7 @@
         <v>125</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>72</v>
@@ -5173,13 +5177,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5256,7 +5260,7 @@
         <v>125</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>72</v>
@@ -5278,13 +5282,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5361,7 +5365,7 @@
         <v>125</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>72</v>
@@ -5383,13 +5387,13 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5466,7 +5470,7 @@
         <v>125</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>72</v>
@@ -5488,13 +5492,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5571,7 +5575,7 @@
         <v>125</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>72</v>
@@ -5593,13 +5597,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5673,11 +5677,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5699,16 +5703,16 @@
         <v>126</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>72</v>
@@ -5757,7 +5761,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -5780,7 +5784,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5803,13 +5807,13 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5860,7 +5864,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -5869,21 +5873,21 @@
         <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5909,20 +5913,20 @@
         <v>102</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q39" t="s" s="2">
         <v>72</v>
@@ -5943,13 +5947,13 @@
         <v>72</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>72</v>
@@ -5967,7 +5971,7 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -5982,15 +5986,15 @@
         <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6013,13 +6017,13 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6046,11 +6050,11 @@
         <v>72</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>72</v>
@@ -6068,7 +6072,7 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -6083,15 +6087,15 @@
         <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6114,16 +6118,16 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6173,7 +6177,7 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -6182,7 +6186,7 @@
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>93</v>
@@ -6191,12 +6195,12 @@
         <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6219,19 +6223,19 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>72</v>
@@ -6280,7 +6284,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -6298,12 +6302,12 @@
         <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6326,13 +6330,13 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6383,7 +6387,7 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -6406,11 +6410,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6429,13 +6433,13 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6486,7 +6490,7 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -6509,7 +6513,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6532,13 +6536,13 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6589,7 +6593,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -6612,7 +6616,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6635,13 +6639,13 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6692,7 +6696,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -6715,7 +6719,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6738,19 +6742,19 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>72</v>
@@ -6799,7 +6803,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -6817,12 +6821,12 @@
         <v>72</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6845,13 +6849,13 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6902,7 +6906,7 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -6920,16 +6924,16 @@
         <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6951,13 +6955,13 @@
         <v>126</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7007,7 +7011,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -7025,16 +7029,16 @@
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7056,16 +7060,16 @@
         <v>126</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -7114,7 +7118,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -7137,7 +7141,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7160,17 +7164,17 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>72</v>
@@ -7195,13 +7199,13 @@
         <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>72</v>
@@ -7219,7 +7223,7 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
@@ -7237,12 +7241,12 @@
         <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7265,17 +7269,17 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>72</v>
@@ -7324,7 +7328,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -7342,12 +7346,12 @@
         <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7370,17 +7374,17 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>72</v>
@@ -7429,7 +7433,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -7447,12 +7451,12 @@
         <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7475,17 +7479,17 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>72</v>
@@ -7534,7 +7538,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -7552,12 +7556,12 @@
         <v>72</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7580,17 +7584,17 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>72</v>
@@ -7639,7 +7643,7 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
@@ -7657,12 +7661,12 @@
         <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7685,16 +7689,16 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7744,7 +7748,7 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -7767,7 +7771,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7790,13 +7794,13 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7847,7 +7851,7 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -7870,7 +7874,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7893,13 +7897,13 @@
         <v>72</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7950,7 +7954,7 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -7968,16 +7972,16 @@
         <v>72</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7999,13 +8003,13 @@
         <v>126</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8055,7 +8059,7 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
@@ -8073,16 +8077,16 @@
         <v>72</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8104,16 +8108,16 @@
         <v>126</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>72</v>
@@ -8162,7 +8166,7 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
@@ -8185,7 +8189,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8208,13 +8212,13 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8241,11 +8245,11 @@
         <v>72</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>72</v>
@@ -8263,7 +8267,7 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>80</v>
@@ -8286,7 +8290,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8309,16 +8313,16 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8368,7 +8372,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -8391,7 +8395,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8414,13 +8418,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8471,7 +8475,7 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>80</v>
@@ -8494,7 +8498,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8517,13 +8521,13 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8574,7 +8578,7 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
@@ -8592,16 +8596,16 @@
         <v>72</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8623,13 +8627,13 @@
         <v>126</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8679,7 +8683,7 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -8697,16 +8701,16 @@
         <v>72</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8728,16 +8732,16 @@
         <v>126</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>72</v>
@@ -8786,7 +8790,7 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -8809,7 +8813,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8832,13 +8836,13 @@
         <v>72</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8889,7 +8893,7 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>80</v>
@@ -8912,7 +8916,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8935,13 +8939,13 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8992,7 +8996,7 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
@@ -9015,7 +9019,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9038,13 +9042,13 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9095,7 +9099,7 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
@@ -9118,7 +9122,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9141,13 +9145,13 @@
         <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9198,7 +9202,7 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
@@ -9216,16 +9220,16 @@
         <v>72</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9247,13 +9251,13 @@
         <v>126</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9303,7 +9307,7 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
@@ -9321,16 +9325,16 @@
         <v>72</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9352,16 +9356,16 @@
         <v>126</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>72</v>
@@ -9410,7 +9414,7 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -9433,7 +9437,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9456,16 +9460,16 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9515,7 +9519,7 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
@@ -9538,7 +9542,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9561,16 +9565,16 @@
         <v>72</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9620,7 +9624,7 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
@@ -9643,7 +9647,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9666,13 +9670,13 @@
         <v>72</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9723,7 +9727,7 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -9746,7 +9750,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9769,13 +9773,13 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9826,7 +9830,7 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>73</v>
@@ -9844,12 +9848,12 @@
         <v>72</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9927,7 +9931,7 @@
         <v>130</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>73</v>
@@ -9950,10 +9954,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>72</v>
@@ -9975,13 +9979,13 @@
         <v>72</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10032,7 +10036,7 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -10055,10 +10059,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>72</v>
@@ -10080,13 +10084,13 @@
         <v>72</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10137,7 +10141,7 @@
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>73</v>
@@ -10160,10 +10164,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>72</v>
@@ -10185,13 +10189,13 @@
         <v>72</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10242,7 +10246,7 @@
         <v>72</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>73</v>
@@ -10265,10 +10269,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>72</v>
@@ -10290,13 +10294,13 @@
         <v>72</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10347,7 +10351,7 @@
         <v>72</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>73</v>
@@ -10370,10 +10374,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>72</v>
@@ -10395,13 +10399,13 @@
         <v>72</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10452,7 +10456,7 @@
         <v>72</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>73</v>
@@ -10475,10 +10479,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>72</v>
@@ -10500,13 +10504,13 @@
         <v>72</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10557,7 +10561,7 @@
         <v>72</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
@@ -10580,10 +10584,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>72</v>
@@ -10605,13 +10609,13 @@
         <v>72</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10662,7 +10666,7 @@
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>73</v>
@@ -10685,10 +10689,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>72</v>
@@ -10710,13 +10714,13 @@
         <v>72</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10767,7 +10771,7 @@
         <v>72</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>73</v>
@@ -10790,10 +10794,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>72</v>
@@ -10815,13 +10819,13 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10872,7 +10876,7 @@
         <v>72</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>73</v>
@@ -10895,10 +10899,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>72</v>
@@ -10920,13 +10924,13 @@
         <v>72</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10977,7 +10981,7 @@
         <v>72</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>73</v>
@@ -11000,10 +11004,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>72</v>
@@ -11025,13 +11029,13 @@
         <v>72</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11082,7 +11086,7 @@
         <v>72</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>73</v>
@@ -11105,10 +11109,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>72</v>
@@ -11130,13 +11134,13 @@
         <v>72</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11187,7 +11191,7 @@
         <v>72</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>73</v>
@@ -11210,10 +11214,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>72</v>
@@ -11235,13 +11239,13 @@
         <v>72</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11292,7 +11296,7 @@
         <v>72</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>73</v>
@@ -11315,10 +11319,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>72</v>
@@ -11340,13 +11344,13 @@
         <v>72</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11397,7 +11401,7 @@
         <v>72</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>73</v>
@@ -11420,11 +11424,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11446,16 +11450,16 @@
         <v>126</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>72</v>
@@ -11504,7 +11508,7 @@
         <v>72</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>73</v>
@@ -11527,7 +11531,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11550,13 +11554,13 @@
         <v>81</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11607,7 +11611,7 @@
         <v>72</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>73</v>
@@ -11622,15 +11626,15 @@
         <v>93</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11653,13 +11657,13 @@
         <v>72</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11710,7 +11714,7 @@
         <v>72</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>73</v>
@@ -11733,7 +11737,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11756,13 +11760,13 @@
         <v>81</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11813,7 +11817,7 @@
         <v>72</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>73</v>
@@ -11836,7 +11840,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11859,16 +11863,16 @@
         <v>72</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -11918,7 +11922,7 @@
         <v>72</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>73</v>
@@ -11941,7 +11945,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11964,13 +11968,13 @@
         <v>72</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12021,7 +12025,7 @@
         <v>72</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>73</v>
@@ -12044,7 +12048,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12067,13 +12071,13 @@
         <v>72</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12124,7 +12128,7 @@
         <v>72</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>73</v>
@@ -12142,16 +12146,16 @@
         <v>72</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12173,13 +12177,13 @@
         <v>126</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12229,7 +12233,7 @@
         <v>72</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>73</v>
@@ -12247,16 +12251,16 @@
         <v>72</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12278,16 +12282,16 @@
         <v>126</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>72</v>
@@ -12336,7 +12340,7 @@
         <v>72</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>73</v>
@@ -12359,7 +12363,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12382,13 +12386,13 @@
         <v>72</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12439,7 +12443,7 @@
         <v>72</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>73</v>
@@ -12462,7 +12466,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12485,13 +12489,13 @@
         <v>72</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12542,7 +12546,7 @@
         <v>72</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>73</v>
@@ -12565,7 +12569,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12588,13 +12592,13 @@
         <v>72</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12645,7 +12649,7 @@
         <v>72</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>73</v>
@@ -12668,7 +12672,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12691,13 +12695,13 @@
         <v>72</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12748,7 +12752,7 @@
         <v>72</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>73</v>
@@ -12771,7 +12775,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12794,13 +12798,13 @@
         <v>72</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -12851,7 +12855,7 @@
         <v>72</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>73</v>
@@ -12874,7 +12878,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12897,13 +12901,13 @@
         <v>72</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -12954,7 +12958,7 @@
         <v>72</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>73</v>
@@ -12972,16 +12976,16 @@
         <v>72</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13003,13 +13007,13 @@
         <v>126</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -13059,7 +13063,7 @@
         <v>72</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>73</v>
@@ -13077,16 +13081,16 @@
         <v>72</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13108,16 +13112,16 @@
         <v>126</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>72</v>
@@ -13166,7 +13170,7 @@
         <v>72</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>73</v>
@@ -13189,7 +13193,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13212,13 +13216,13 @@
         <v>72</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13269,7 +13273,7 @@
         <v>72</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>80</v>
@@ -13292,7 +13296,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13315,13 +13319,13 @@
         <v>72</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -13372,7 +13376,7 @@
         <v>72</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>73</v>
@@ -13395,7 +13399,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13418,13 +13422,13 @@
         <v>72</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -13475,7 +13479,7 @@
         <v>72</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>73</v>
@@ -13493,16 +13497,16 @@
         <v>72</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -13524,13 +13528,13 @@
         <v>126</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13580,7 +13584,7 @@
         <v>72</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>73</v>
@@ -13598,16 +13602,16 @@
         <v>72</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -13629,16 +13633,16 @@
         <v>126</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>72</v>
@@ -13687,7 +13691,7 @@
         <v>72</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>73</v>
@@ -13710,7 +13714,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13733,13 +13737,13 @@
         <v>72</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -13790,7 +13794,7 @@
         <v>72</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>80</v>
@@ -13813,7 +13817,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -13836,13 +13840,13 @@
         <v>72</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -13893,7 +13897,7 @@
         <v>72</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>73</v>
@@ -13916,7 +13920,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -13939,13 +13943,13 @@
         <v>72</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -13996,7 +14000,7 @@
         <v>72</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>73</v>
@@ -14014,16 +14018,16 @@
         <v>72</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14045,13 +14049,13 @@
         <v>126</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -14101,7 +14105,7 @@
         <v>72</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>73</v>
@@ -14119,16 +14123,16 @@
         <v>72</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14150,16 +14154,16 @@
         <v>126</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>72</v>
@@ -14208,7 +14212,7 @@
         <v>72</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>73</v>
@@ -14231,7 +14235,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14254,13 +14258,13 @@
         <v>72</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14311,7 +14315,7 @@
         <v>72</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>80</v>
@@ -14334,7 +14338,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14357,13 +14361,13 @@
         <v>72</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14390,13 +14394,13 @@
         <v>72</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>72</v>
@@ -14414,7 +14418,7 @@
         <v>72</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>73</v>
@@ -14437,7 +14441,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14460,13 +14464,13 @@
         <v>72</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -14517,7 +14521,7 @@
         <v>72</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>73</v>
@@ -14540,7 +14544,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14563,13 +14567,13 @@
         <v>72</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -14620,7 +14624,7 @@
         <v>72</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-cdm-insurance-plan.xlsx
+++ b/StructureDefinition-cdm-insurance-plan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="491">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-insurance-plan</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-insurance-plan</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Health Data Connect Common Data Model definition of what fields we currently define for an insurance plan</t>
+    <t>LinuxForHealth Common Data Model definition of what fields we currently define for an insurance plan</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -244,10 +244,6 @@
   </si>
   <si>
     <t>Details of a Health Insurance product/plan provided by an organization.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ipn-1:The organization SHALL at least have a name or an idendtifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -281,7 +277,7 @@
     <t>InsurancePlan.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -431,7 +427,7 @@
     <t>dentalFullyInsuredIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/dental-fully-insured-indicator}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/dental-fully-insured-indicator}
 </t>
   </si>
   <si>
@@ -441,7 +437,7 @@
     <t>drugFullyInsuredIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/drug-fully-insured-indicator}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/drug-fully-insured-indicator}
 </t>
   </si>
   <si>
@@ -451,7 +447,7 @@
     <t>enrollmentType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/enrollment-type}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/enrollment-type}
 </t>
   </si>
   <si>
@@ -461,7 +457,7 @@
     <t>exchangePlanIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/exchange-plan-indicator}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/exchange-plan-indicator}
 </t>
   </si>
   <si>
@@ -471,7 +467,7 @@
     <t>IndustryClassification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/industry-classification}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/industry-classification}
 </t>
   </si>
   <si>
@@ -518,7 +514,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/industry-classification</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/industry-classification</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -553,13 +549,13 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/wh-payer-job-title-code</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/payer-job-title-code</t>
   </si>
   <si>
     <t>medicalFullyInsuredIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/medical-fully-insured-indicator}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/medical-fully-insured-indicator}
 </t>
   </si>
   <si>
@@ -569,77 +565,77 @@
     <t>visionFullyInsuredIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/vision-fully-insured-indicator}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/vision-fully-insured-indicator}
 </t>
   </si>
   <si>
     <t>Indicator of the fully insured vision coverage for the member or employee</t>
   </si>
   <si>
-    <t>whPayerDentalCoverageIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-dental-coverage-indicator}
+    <t>payerDentalCoverageIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/payer-dental-coverage-indicator}
 </t>
   </si>
   <si>
     <t>Indicates whether the member has dental benefit coverage: Y or N</t>
   </si>
   <si>
-    <t>whPayerDrugCoverageIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-drug-coverage-indicator}
+    <t>payerDrugCoverageIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/payer-drug-coverage-indicator}
 </t>
   </si>
   <si>
     <t>Indicates whether the member has drug benefit coverage: Y or N</t>
   </si>
   <si>
-    <t>whPayerHearingCoverageIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-hearing-coverage-indicator}
+    <t>payerHearingCoverageIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/payer-hearing-coverage-indicator}
 </t>
   </si>
   <si>
     <t>Indicates whether the member has hearing benefit coverage: Y or N</t>
   </si>
   <si>
-    <t>whPayerLongtermCareCoverageIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-long-term-care-coverage-indicator}
+    <t>payerLongtermCareCoverageIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/payer-long-term-care-coverage-indicator}
 </t>
   </si>
   <si>
     <t>Indicates whether the member or employee has long-term care benefit coverage</t>
   </si>
   <si>
-    <t>whPayerManagedCarePlanType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-managed-care-plan-type}
+    <t>payerManagedCarePlanType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/payer-managed-care-plan-type}
 </t>
   </si>
   <si>
     <t>Code for the managed care plan type under which the eligible individual is enrolled</t>
   </si>
   <si>
-    <t>whPayerMedicalCoverageIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-medical-coverage-indicator}
+    <t>payerMedicalCoverageIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/payer-medical-coverage-indicator}
 </t>
   </si>
   <si>
     <t>Indicates whether the member has medical benefit coverage: Y or N</t>
   </si>
   <si>
-    <t>whPayerMentalHealthAmbulatoryCoverageIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-mental-health-ambulatory-coverage-indicator}
+    <t>payerMentalHealthAmbulatoryCoverageIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/payer-mental-health-ambulatory-coverage-indicator}
 </t>
   </si>
   <si>
@@ -649,10 +645,10 @@
     <t>Indicates whether the member has mental health ambulatory benefit coverage: Y or N. This finer granularity of MHSA benefit coverage may be used in HEDIS reporting.</t>
   </si>
   <si>
-    <t>whPayerMentalHealthDayNightCoverageIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-mental-health-day-night-coverage-indicator}
+    <t>payerMentalHealthDayNightCoverageIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/payer-mental-health-day-night-coverage-indicator}
 </t>
   </si>
   <si>
@@ -662,10 +658,10 @@
     <t>Indicates whether the member has mental health day-night benefit coverage: Y or N. This finer granularity of MHSA benefit coverage may be used in HEDIS reporting.</t>
   </si>
   <si>
-    <t>whPayerMentalHealthInpatientCoverageIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-mental-health-inpatient-coverage-indicator}
+    <t>payerMentalHealthInpatientCoverageIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/payer-mental-health-inpatient-coverage-indicator}
 </t>
   </si>
   <si>
@@ -675,30 +671,30 @@
     <t>Indicates whether the member has mental health inpatient benefit coverage: Y or N. This finer granularity of MHSA benefit coverage may be used in HEDIS reporting.</t>
   </si>
   <si>
-    <t>whPayerPsychCoverageIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-psych-coverage-indicator}
+    <t>payerPsychCoverageIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/payer-psych-coverage-indicator}
 </t>
   </si>
   <si>
     <t>Indicates whether the member has mental health and substance abuse benefit coverage: Y or N</t>
   </si>
   <si>
-    <t>whPayerShorttermCareCoverageIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-short-term-care-coverage-indicator}
+    <t>payerShorttermCareCoverageIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/payer-short-term-care-coverage-indicator}
 </t>
   </si>
   <si>
     <t>Indicates whether the member or employee has short-term care benefit coverage</t>
   </si>
   <si>
-    <t>whPayerSubstanceAbuseAmbulatoryCoverageIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-substance-abuse-ambulatory-coverage-indicator}
+    <t>payerSubstanceAbuseAmbulatoryCoverageIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/payer-substance-abuse-ambulatory-coverage-indicator}
 </t>
   </si>
   <si>
@@ -708,10 +704,10 @@
     <t>Indicator of Substance Abuse (chemical dependency) Ambulatory benefit coverage for the member. This finer granularity of MHSA benefit coverage may be used in HEDIS reporting.</t>
   </si>
   <si>
-    <t>whPayerSubstanceAbuseDayNightCoverageIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-substance-abuse-day-night-coverage-indicator}
+    <t>payerSubstanceAbuseDayNightCoverageIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/payer-substance-abuse-day-night-coverage-indicator}
 </t>
   </si>
   <si>
@@ -721,10 +717,10 @@
     <t>Indicator of Substance Abuse (chemical dependency) day-night benefit coverage for the member. This finer granularity of MHSA benefit coverage may be used in HEDIS reporting.</t>
   </si>
   <si>
-    <t>whPayerSubstanceAbuseInpatientCoverageIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-substance-abuse-inpatient-coverage-indicator}
+    <t>payerSubstanceAbuseInpatientCoverageIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/payer-substance-abuse-inpatient-coverage-indicator}
 </t>
   </si>
   <si>
@@ -734,10 +730,10 @@
     <t>Indicator of Substance Abuse (chemical dependency) inpatient benefit coverage for the member. This finer granularity of MHSA benefit coverage may be used in HEDIS reporting.</t>
   </si>
   <si>
-    <t>whPayerVisionCoverageIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-vision-coverage-indicator}
+    <t>payerVisionCoverageIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/payer-vision-coverage-indicator}
 </t>
   </si>
   <si>
@@ -832,7 +828,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/insurance-plan-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/insurance-plan-type</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -1217,7 +1213,7 @@
     <t>acaHealthInsuranceOversightSystemPlan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/aca-health-insurance-oversight-system-plan}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/aca-health-insurance-oversight-system-plan}
 </t>
   </si>
   <si>
@@ -1230,7 +1226,7 @@
     <t>acaHealthInsuranceOversightSystemProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/aca-health-insurance-oversight-system-product}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/aca-health-insurance-oversight-system-product}
 </t>
   </si>
   <si>
@@ -1240,7 +1236,7 @@
     <t>acaMarketType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/aca-market-type}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/aca-market-type}
 </t>
   </si>
   <si>
@@ -1250,7 +1246,7 @@
     <t>acaMetalTier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/aca-metal-tier}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/aca-metal-tier}
 </t>
   </si>
   <si>
@@ -1260,7 +1256,7 @@
     <t>capitationArrangement</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/capitation-arrangement}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/capitation-arrangement}
 </t>
   </si>
   <si>
@@ -1270,7 +1266,7 @@
     <t>carveOut</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/carve-out}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/carve-out}
 </t>
   </si>
   <si>
@@ -1280,7 +1276,7 @@
     <t>costSharingReductionVariant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/cost-sharing-reduction-variant}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/cost-sharing-reduction-variant}
 </t>
   </si>
   <si>
@@ -1290,7 +1286,7 @@
     <t>fundingArrangement</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/funding-arrangement}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/funding-arrangement}
 </t>
   </si>
   <si>
@@ -1300,7 +1296,7 @@
     <t>levelOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/level-of-care}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/level-of-care}
 </t>
   </si>
   <si>
@@ -1310,7 +1306,7 @@
     <t>longtermCareDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/long-term-care-duration}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/long-term-care-duration}
 </t>
   </si>
   <si>
@@ -1320,7 +1316,7 @@
     <t>longtermCareWaitingPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/long-term-care-waiting-period}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/long-term-care-waiting-period}
 </t>
   </si>
   <si>
@@ -1333,7 +1329,7 @@
     <t>ratingArea</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/rating-area}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/rating-area}
 </t>
   </si>
   <si>
@@ -1343,7 +1339,7 @@
     <t>shorttermCareDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/short-term-care-duration}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/short-term-care-duration}
 </t>
   </si>
   <si>
@@ -1353,7 +1349,7 @@
     <t>shorttermCareWaitingPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/short-term-care-waiting-period}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/short-term-care-waiting-period}
 </t>
   </si>
   <si>
@@ -1867,7 +1863,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="58.69140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1890,7 +1886,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.18359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.1953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.0625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2112,18 +2108,18 @@
         <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2134,28 +2130,28 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2205,13 +2201,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -2228,7 +2224,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2239,7 +2235,7 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -2251,13 +2247,13 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2308,30 +2304,30 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2342,28 +2338,28 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2413,19 +2409,19 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -2436,7 +2432,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2447,7 +2443,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -2459,16 +2455,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2494,43 +2490,43 @@
         <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>72</v>
@@ -2541,18 +2537,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -2564,16 +2560,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2623,34 +2619,34 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2669,16 +2665,16 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2728,7 +2724,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -2746,12 +2742,12 @@
         <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2774,13 +2770,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2819,17 +2815,17 @@
         <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -2841,7 +2837,7 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
@@ -2852,10 +2848,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>72</v>
@@ -2865,7 +2861,7 @@
         <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>72</v>
@@ -2877,13 +2873,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2934,7 +2930,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -2943,10 +2939,10 @@
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
@@ -2957,10 +2953,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>72</v>
@@ -2970,7 +2966,7 @@
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -2982,13 +2978,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3039,7 +3035,7 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -3048,10 +3044,10 @@
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>72</v>
@@ -3062,10 +3058,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>72</v>
@@ -3075,7 +3071,7 @@
         <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>72</v>
@@ -3087,13 +3083,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3144,7 +3140,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -3153,10 +3149,10 @@
         <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>72</v>
@@ -3167,10 +3163,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>72</v>
@@ -3180,7 +3176,7 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -3192,13 +3188,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3249,7 +3245,7 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
@@ -3258,10 +3254,10 @@
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>72</v>
@@ -3272,10 +3268,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>72</v>
@@ -3285,7 +3281,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -3297,13 +3293,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>147</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3354,7 +3350,7 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -3363,10 +3359,10 @@
         <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>72</v>
@@ -3377,7 +3373,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3388,7 +3384,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -3400,13 +3396,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3457,30 +3453,30 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3503,13 +3499,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3548,19 +3544,19 @@
         <v>72</v>
       </c>
       <c r="AA16" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD16" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AB16" t="s" s="2">
+      <c r="AE16" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -3572,7 +3568,7 @@
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>72</v>
@@ -3583,7 +3579,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3591,10 +3587,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
@@ -3606,16 +3602,16 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3623,55 +3619,55 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="R17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
@@ -3683,12 +3679,12 @@
         <v>72</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3699,7 +3695,7 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -3711,13 +3707,13 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3756,43 +3752,43 @@
         <v>72</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AE18" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>72</v>
@@ -3802,7 +3798,7 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -3814,13 +3810,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3847,11 +3843,11 @@
         <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>72</v>
@@ -3869,33 +3865,33 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>72</v>
@@ -3905,7 +3901,7 @@
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -3917,13 +3913,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3974,7 +3970,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -3983,10 +3979,10 @@
         <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>72</v>
@@ -3997,10 +3993,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>72</v>
@@ -4010,7 +4006,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -4022,13 +4018,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4079,7 +4075,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -4088,10 +4084,10 @@
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>72</v>
@@ -4102,10 +4098,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>72</v>
@@ -4115,7 +4111,7 @@
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -4127,13 +4123,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4184,7 +4180,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -4193,10 +4189,10 @@
         <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>72</v>
@@ -4207,10 +4203,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>72</v>
@@ -4220,7 +4216,7 @@
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -4232,13 +4228,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4289,7 +4285,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -4298,10 +4294,10 @@
         <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>72</v>
@@ -4312,10 +4308,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>72</v>
@@ -4325,7 +4321,7 @@
         <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>72</v>
@@ -4337,13 +4333,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4394,7 +4390,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -4403,10 +4399,10 @@
         <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>72</v>
@@ -4417,10 +4413,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>72</v>
@@ -4430,7 +4426,7 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>72</v>
@@ -4442,13 +4438,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4499,7 +4495,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -4508,10 +4504,10 @@
         <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>72</v>
@@ -4522,10 +4518,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>72</v>
@@ -4535,7 +4531,7 @@
         <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>72</v>
@@ -4547,13 +4543,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4604,7 +4600,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -4613,10 +4609,10 @@
         <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>72</v>
@@ -4627,10 +4623,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>72</v>
@@ -4640,7 +4636,7 @@
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
@@ -4652,13 +4648,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="L27" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4709,7 +4705,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -4718,10 +4714,10 @@
         <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>72</v>
@@ -4732,10 +4728,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>72</v>
@@ -4745,7 +4741,7 @@
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -4757,13 +4753,13 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4814,7 +4810,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -4823,10 +4819,10 @@
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>72</v>
@@ -4837,10 +4833,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>72</v>
@@ -4850,7 +4846,7 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>72</v>
@@ -4862,13 +4858,13 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4919,7 +4915,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -4928,10 +4924,10 @@
         <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>72</v>
@@ -4942,10 +4938,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>72</v>
@@ -4955,7 +4951,7 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>72</v>
@@ -4967,13 +4963,13 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5024,7 +5020,7 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
@@ -5033,10 +5029,10 @@
         <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>72</v>
@@ -5047,10 +5043,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>72</v>
@@ -5060,7 +5056,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
@@ -5072,13 +5068,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5129,7 +5125,7 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -5138,10 +5134,10 @@
         <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>72</v>
@@ -5152,10 +5148,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>72</v>
@@ -5165,7 +5161,7 @@
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>72</v>
@@ -5177,13 +5173,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="L32" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5234,7 +5230,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -5243,10 +5239,10 @@
         <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>72</v>
@@ -5257,10 +5253,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>72</v>
@@ -5270,7 +5266,7 @@
         <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>72</v>
@@ -5282,13 +5278,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5339,7 +5335,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -5348,10 +5344,10 @@
         <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>72</v>
@@ -5362,10 +5358,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>72</v>
@@ -5375,7 +5371,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>72</v>
@@ -5387,13 +5383,13 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5444,7 +5440,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -5453,10 +5449,10 @@
         <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>72</v>
@@ -5467,10 +5463,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>72</v>
@@ -5480,7 +5476,7 @@
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>72</v>
@@ -5492,13 +5488,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5549,7 +5545,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -5558,10 +5554,10 @@
         <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>72</v>
@@ -5572,10 +5568,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>72</v>
@@ -5585,7 +5581,7 @@
         <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>72</v>
@@ -5597,13 +5593,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="L36" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5654,7 +5650,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -5663,10 +5659,10 @@
         <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>72</v>
@@ -5677,11 +5673,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5694,25 +5690,25 @@
         <v>72</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>72</v>
@@ -5761,7 +5757,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -5773,18 +5769,18 @@
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5804,16 +5800,16 @@
         <v>72</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5864,7 +5860,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -5873,21 +5869,21 @@
         <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AI38" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
+      <c r="AK38" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5898,103 +5894,103 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P39" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="O39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P39" t="s" s="2">
+      <c r="Q39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W39" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Q39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W39" t="s" s="2">
+      <c r="X39" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="X39" t="s" s="2">
+      <c r="Y39" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6014,16 +6010,16 @@
         <v>72</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6050,11 +6046,11 @@
         <v>72</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>72</v>
@@ -6072,7 +6068,7 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -6084,18 +6080,18 @@
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6106,28 +6102,28 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6177,30 +6173,30 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6223,19 +6219,19 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>72</v>
@@ -6284,7 +6280,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -6296,18 +6292,18 @@
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6318,7 +6314,7 @@
         <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>72</v>
@@ -6330,13 +6326,13 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6387,19 +6383,19 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>72</v>
@@ -6410,36 +6406,36 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J44" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6490,19 +6486,19 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>72</v>
@@ -6513,7 +6509,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6524,25 +6520,25 @@
         <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6593,19 +6589,19 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>72</v>
@@ -6616,7 +6612,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6636,16 +6632,16 @@
         <v>72</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6696,7 +6692,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -6708,7 +6704,7 @@
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>72</v>
@@ -6719,7 +6715,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6742,19 +6738,19 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>72</v>
@@ -6803,7 +6799,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -6815,18 +6811,18 @@
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6837,7 +6833,7 @@
         <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>72</v>
@@ -6849,13 +6845,13 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6906,34 +6902,34 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6952,16 +6948,16 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7011,7 +7007,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -7023,22 +7019,22 @@
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7051,25 +7047,25 @@
         <v>72</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M50" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -7118,7 +7114,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -7130,18 +7126,18 @@
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7152,7 +7148,7 @@
         <v>73</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>72</v>
@@ -7164,17 +7160,17 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>72</v>
@@ -7199,54 +7195,54 @@
         <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7257,7 +7253,7 @@
         <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>72</v>
@@ -7269,17 +7265,17 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>72</v>
@@ -7328,30 +7324,30 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7374,17 +7370,17 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>72</v>
@@ -7433,7 +7429,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -7445,18 +7441,18 @@
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7467,7 +7463,7 @@
         <v>73</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>72</v>
@@ -7479,17 +7475,17 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>72</v>
@@ -7538,30 +7534,30 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7584,17 +7580,17 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>72</v>
@@ -7643,7 +7639,7 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
@@ -7655,18 +7651,18 @@
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7689,16 +7685,16 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7748,7 +7744,7 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -7760,7 +7756,7 @@
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>72</v>
@@ -7771,7 +7767,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7794,13 +7790,13 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7851,7 +7847,7 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -7863,7 +7859,7 @@
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>72</v>
@@ -7874,7 +7870,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7885,7 +7881,7 @@
         <v>73</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>72</v>
@@ -7897,13 +7893,13 @@
         <v>72</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7954,34 +7950,34 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8000,16 +7996,16 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="M59" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8059,7 +8055,7 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
@@ -8071,22 +8067,22 @@
         <v>72</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8099,25 +8095,25 @@
         <v>72</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M60" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>72</v>
@@ -8166,7 +8162,7 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
@@ -8178,18 +8174,18 @@
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8197,10 +8193,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>72</v>
@@ -8212,13 +8208,13 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8245,11 +8241,11 @@
         <v>72</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>72</v>
@@ -8267,19 +8263,19 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>72</v>
@@ -8290,7 +8286,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8313,16 +8309,16 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="M62" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8372,7 +8368,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -8384,7 +8380,7 @@
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>72</v>
@@ -8395,7 +8391,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8403,7 +8399,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>74</v>
@@ -8418,13 +8414,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8475,10 +8471,10 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>74</v>
@@ -8487,7 +8483,7 @@
         <v>72</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>72</v>
@@ -8498,7 +8494,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8509,7 +8505,7 @@
         <v>73</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>72</v>
@@ -8521,13 +8517,13 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8578,34 +8574,34 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8624,16 +8620,16 @@
         <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="M65" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8683,7 +8679,7 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -8695,22 +8691,22 @@
         <v>72</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8723,25 +8719,25 @@
         <v>72</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M66" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>72</v>
@@ -8790,7 +8786,7 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -8802,18 +8798,18 @@
         <v>72</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8821,10 +8817,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>72</v>
@@ -8836,13 +8832,13 @@
         <v>72</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8893,19 +8889,19 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>72</v>
@@ -8916,7 +8912,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8927,7 +8923,7 @@
         <v>73</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>72</v>
@@ -8939,13 +8935,13 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8996,19 +8992,19 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>72</v>
@@ -9019,7 +9015,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9042,13 +9038,13 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9099,7 +9095,7 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
@@ -9111,7 +9107,7 @@
         <v>72</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>72</v>
@@ -9122,7 +9118,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9133,7 +9129,7 @@
         <v>73</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>72</v>
@@ -9145,13 +9141,13 @@
         <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9202,34 +9198,34 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9248,16 +9244,16 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="M71" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9307,7 +9303,7 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
@@ -9319,22 +9315,22 @@
         <v>72</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9347,25 +9343,25 @@
         <v>72</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M72" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>72</v>
@@ -9414,7 +9410,7 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -9426,18 +9422,18 @@
         <v>72</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9448,7 +9444,7 @@
         <v>73</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>72</v>
@@ -9460,16 +9456,16 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9519,19 +9515,19 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>72</v>
@@ -9542,7 +9538,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9553,7 +9549,7 @@
         <v>73</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>72</v>
@@ -9565,16 +9561,16 @@
         <v>72</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9624,19 +9620,19 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>72</v>
@@ -9647,7 +9643,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9670,13 +9666,13 @@
         <v>72</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9727,7 +9723,7 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -9739,7 +9735,7 @@
         <v>72</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>72</v>
@@ -9750,7 +9746,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9761,7 +9757,7 @@
         <v>73</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>72</v>
@@ -9773,13 +9769,13 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9830,30 +9826,30 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9876,13 +9872,13 @@
         <v>72</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9921,17 +9917,17 @@
         <v>72</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>73</v>
@@ -9943,7 +9939,7 @@
         <v>72</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>72</v>
@@ -9954,10 +9950,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>72</v>
@@ -9967,7 +9963,7 @@
         <v>73</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>72</v>
@@ -9979,13 +9975,13 @@
         <v>72</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10036,7 +10032,7 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -10045,10 +10041,10 @@
         <v>74</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>72</v>
@@ -10059,10 +10055,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>72</v>
@@ -10072,7 +10068,7 @@
         <v>73</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>72</v>
@@ -10084,13 +10080,13 @@
         <v>72</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K79" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="L79" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10141,7 +10137,7 @@
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>73</v>
@@ -10150,10 +10146,10 @@
         <v>74</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>72</v>
@@ -10164,10 +10160,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>72</v>
@@ -10177,7 +10173,7 @@
         <v>73</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>72</v>
@@ -10189,13 +10185,13 @@
         <v>72</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="K80" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="L80" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10246,7 +10242,7 @@
         <v>72</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>73</v>
@@ -10255,10 +10251,10 @@
         <v>74</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>72</v>
@@ -10269,10 +10265,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>72</v>
@@ -10282,7 +10278,7 @@
         <v>73</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>72</v>
@@ -10294,13 +10290,13 @@
         <v>72</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="K81" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="L81" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10351,7 +10347,7 @@
         <v>72</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>73</v>
@@ -10360,10 +10356,10 @@
         <v>74</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>72</v>
@@ -10374,10 +10370,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>72</v>
@@ -10387,7 +10383,7 @@
         <v>73</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>72</v>
@@ -10399,13 +10395,13 @@
         <v>72</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="K82" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="L82" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10456,7 +10452,7 @@
         <v>72</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>73</v>
@@ -10465,10 +10461,10 @@
         <v>74</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>72</v>
@@ -10479,10 +10475,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>72</v>
@@ -10492,7 +10488,7 @@
         <v>73</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>72</v>
@@ -10504,13 +10500,13 @@
         <v>72</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="K83" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="L83" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10561,7 +10557,7 @@
         <v>72</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
@@ -10570,10 +10566,10 @@
         <v>74</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>72</v>
@@ -10584,10 +10580,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>72</v>
@@ -10597,7 +10593,7 @@
         <v>73</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>72</v>
@@ -10609,13 +10605,13 @@
         <v>72</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K84" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="L84" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10666,7 +10662,7 @@
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>73</v>
@@ -10675,10 +10671,10 @@
         <v>74</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>72</v>
@@ -10689,10 +10685,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>72</v>
@@ -10702,7 +10698,7 @@
         <v>73</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>72</v>
@@ -10714,13 +10710,13 @@
         <v>72</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="K85" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="L85" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10771,7 +10767,7 @@
         <v>72</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>73</v>
@@ -10780,10 +10776,10 @@
         <v>74</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>72</v>
@@ -10794,10 +10790,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>72</v>
@@ -10807,7 +10803,7 @@
         <v>73</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>72</v>
@@ -10819,13 +10815,13 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K86" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="L86" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10876,7 +10872,7 @@
         <v>72</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>73</v>
@@ -10885,10 +10881,10 @@
         <v>74</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>72</v>
@@ -10899,10 +10895,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>72</v>
@@ -10912,7 +10908,7 @@
         <v>73</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>72</v>
@@ -10924,13 +10920,13 @@
         <v>72</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="K87" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="L87" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10981,7 +10977,7 @@
         <v>72</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>73</v>
@@ -10990,10 +10986,10 @@
         <v>74</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>72</v>
@@ -11004,10 +11000,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>72</v>
@@ -11017,7 +11013,7 @@
         <v>73</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>72</v>
@@ -11029,13 +11025,13 @@
         <v>72</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11086,7 +11082,7 @@
         <v>72</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>73</v>
@@ -11095,10 +11091,10 @@
         <v>74</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>72</v>
@@ -11109,10 +11105,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>72</v>
@@ -11122,7 +11118,7 @@
         <v>73</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>72</v>
@@ -11134,13 +11130,13 @@
         <v>72</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="K89" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="L89" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11191,7 +11187,7 @@
         <v>72</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>73</v>
@@ -11200,10 +11196,10 @@
         <v>74</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>72</v>
@@ -11214,10 +11210,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>72</v>
@@ -11227,7 +11223,7 @@
         <v>73</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>72</v>
@@ -11239,13 +11235,13 @@
         <v>72</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="K90" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="L90" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11296,7 +11292,7 @@
         <v>72</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>73</v>
@@ -11305,10 +11301,10 @@
         <v>74</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>72</v>
@@ -11319,10 +11315,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>72</v>
@@ -11332,7 +11328,7 @@
         <v>73</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>72</v>
@@ -11344,13 +11340,13 @@
         <v>72</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11401,7 +11397,7 @@
         <v>72</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>73</v>
@@ -11410,10 +11406,10 @@
         <v>74</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>72</v>
@@ -11424,11 +11420,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11441,25 +11437,25 @@
         <v>72</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L92" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M92" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>72</v>
@@ -11508,7 +11504,7 @@
         <v>72</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>73</v>
@@ -11520,18 +11516,18 @@
         <v>72</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11551,16 +11547,16 @@
         <v>72</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K93" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="L93" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11611,7 +11607,7 @@
         <v>72</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>73</v>
@@ -11623,18 +11619,18 @@
         <v>72</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK93" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11645,7 +11641,7 @@
         <v>73</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>72</v>
@@ -11657,13 +11653,13 @@
         <v>72</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11714,19 +11710,19 @@
         <v>72</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>72</v>
@@ -11737,7 +11733,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11757,16 +11753,16 @@
         <v>72</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K95" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="L95" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11817,7 +11813,7 @@
         <v>72</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>73</v>
@@ -11829,7 +11825,7 @@
         <v>72</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>72</v>
@@ -11840,7 +11836,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11863,16 +11859,16 @@
         <v>72</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L96" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="M96" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -11922,7 +11918,7 @@
         <v>72</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>73</v>
@@ -11934,7 +11930,7 @@
         <v>72</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>72</v>
@@ -11945,7 +11941,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11968,13 +11964,13 @@
         <v>72</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12025,7 +12021,7 @@
         <v>72</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>73</v>
@@ -12037,7 +12033,7 @@
         <v>72</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>72</v>
@@ -12048,7 +12044,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12059,7 +12055,7 @@
         <v>73</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>72</v>
@@ -12071,13 +12067,13 @@
         <v>72</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K98" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K98" t="s" s="2">
+      <c r="L98" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12128,34 +12124,34 @@
         <v>72</v>
       </c>
       <c r="AE98" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK98" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12174,16 +12170,16 @@
         <v>72</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="M99" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12233,7 +12229,7 @@
         <v>72</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>73</v>
@@ -12245,22 +12241,22 @@
         <v>72</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12273,25 +12269,25 @@
         <v>72</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L100" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M100" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N100" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>72</v>
@@ -12340,7 +12336,7 @@
         <v>72</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>73</v>
@@ -12352,18 +12348,18 @@
         <v>72</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12374,7 +12370,7 @@
         <v>73</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>72</v>
@@ -12386,13 +12382,13 @@
         <v>72</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12443,19 +12439,19 @@
         <v>72</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>72</v>
@@ -12466,7 +12462,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12477,7 +12473,7 @@
         <v>73</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>72</v>
@@ -12489,13 +12485,13 @@
         <v>72</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="L102" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12546,19 +12542,19 @@
         <v>72</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>72</v>
@@ -12569,7 +12565,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12580,7 +12576,7 @@
         <v>73</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>72</v>
@@ -12592,13 +12588,13 @@
         <v>72</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="K103" t="s" s="2">
+      <c r="L103" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12649,19 +12645,19 @@
         <v>72</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>72</v>
@@ -12672,7 +12668,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12683,7 +12679,7 @@
         <v>73</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>72</v>
@@ -12695,13 +12691,13 @@
         <v>72</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12752,19 +12748,19 @@
         <v>72</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>72</v>
@@ -12775,7 +12771,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12798,13 +12794,13 @@
         <v>72</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -12855,7 +12851,7 @@
         <v>72</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>73</v>
@@ -12867,7 +12863,7 @@
         <v>72</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>72</v>
@@ -12878,7 +12874,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12889,7 +12885,7 @@
         <v>73</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>72</v>
@@ -12901,13 +12897,13 @@
         <v>72</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K106" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K106" t="s" s="2">
+      <c r="L106" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -12958,34 +12954,34 @@
         <v>72</v>
       </c>
       <c r="AE106" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK106" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13004,16 +13000,16 @@
         <v>72</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L107" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="M107" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -13063,7 +13059,7 @@
         <v>72</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>73</v>
@@ -13075,22 +13071,22 @@
         <v>72</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13103,25 +13099,25 @@
         <v>72</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L108" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M108" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N108" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>72</v>
@@ -13170,7 +13166,7 @@
         <v>72</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>73</v>
@@ -13182,18 +13178,18 @@
         <v>72</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13201,10 +13197,10 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>72</v>
@@ -13216,13 +13212,13 @@
         <v>72</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13273,19 +13269,19 @@
         <v>72</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>72</v>
@@ -13296,7 +13292,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13319,13 +13315,13 @@
         <v>72</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -13376,7 +13372,7 @@
         <v>72</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>73</v>
@@ -13388,7 +13384,7 @@
         <v>72</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>72</v>
@@ -13399,7 +13395,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13410,7 +13406,7 @@
         <v>73</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>72</v>
@@ -13422,13 +13418,13 @@
         <v>72</v>
       </c>
       <c r="J111" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K111" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K111" t="s" s="2">
+      <c r="L111" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -13479,34 +13475,34 @@
         <v>72</v>
       </c>
       <c r="AE111" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK111" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -13525,16 +13521,16 @@
         <v>72</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L112" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="M112" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13584,7 +13580,7 @@
         <v>72</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>73</v>
@@ -13596,22 +13592,22 @@
         <v>72</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -13624,25 +13620,25 @@
         <v>72</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L113" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M113" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>72</v>
@@ -13691,7 +13687,7 @@
         <v>72</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>73</v>
@@ -13703,18 +13699,18 @@
         <v>72</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13722,10 +13718,10 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>72</v>
@@ -13737,13 +13733,13 @@
         <v>72</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -13794,19 +13790,19 @@
         <v>72</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>72</v>
@@ -13817,7 +13813,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -13840,13 +13836,13 @@
         <v>72</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -13897,7 +13893,7 @@
         <v>72</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>73</v>
@@ -13909,7 +13905,7 @@
         <v>72</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>72</v>
@@ -13920,7 +13916,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -13931,7 +13927,7 @@
         <v>73</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>72</v>
@@ -13943,13 +13939,13 @@
         <v>72</v>
       </c>
       <c r="J116" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K116" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K116" t="s" s="2">
+      <c r="L116" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14000,34 +13996,34 @@
         <v>72</v>
       </c>
       <c r="AE116" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK116" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14046,16 +14042,16 @@
         <v>72</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L117" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="M117" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -14105,7 +14101,7 @@
         <v>72</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>73</v>
@@ -14117,22 +14113,22 @@
         <v>72</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14145,25 +14141,25 @@
         <v>72</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L118" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M118" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N118" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>72</v>
@@ -14212,7 +14208,7 @@
         <v>72</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>73</v>
@@ -14224,18 +14220,18 @@
         <v>72</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14243,10 +14239,10 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>72</v>
@@ -14258,13 +14254,13 @@
         <v>72</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14315,19 +14311,19 @@
         <v>72</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>72</v>
@@ -14338,7 +14334,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14349,7 +14345,7 @@
         <v>73</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>72</v>
@@ -14361,13 +14357,13 @@
         <v>72</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14394,14 +14390,14 @@
         <v>72</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X120" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Y120" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="Y120" t="s" s="2">
-        <v>485</v>
-      </c>
       <c r="Z120" t="s" s="2">
         <v>72</v>
       </c>
@@ -14418,19 +14414,19 @@
         <v>72</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>72</v>
@@ -14441,7 +14437,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14464,13 +14460,13 @@
         <v>72</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -14521,7 +14517,7 @@
         <v>72</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>73</v>
@@ -14533,7 +14529,7 @@
         <v>72</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>72</v>
@@ -14544,7 +14540,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14555,7 +14551,7 @@
         <v>73</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>72</v>
@@ -14567,13 +14563,13 @@
         <v>72</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -14624,19 +14620,19 @@
         <v>72</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>72</v>
